--- a/runs/run670/NotionalETEOutput670.xlsx
+++ b/runs/run670/NotionalETEOutput670.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER0_State_Update</t>
+    <t>Missile_BRAVER2_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER0_118.MISSILE_HELLMASKER0_118</t>
+    <t>MISSILE_BRAVER2_235.MISSILE_BRAVER2_235</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER0</t>
+    <t>MISSILE_BRAVER2</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1461.2765248828</v>
+        <v>-1574.870746019646</v>
       </c>
       <c r="J2">
-        <v>1979.054373313781</v>
+        <v>2013.845122109426</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1411.040787077832</v>
+        <v>-1503.261171142658</v>
       </c>
       <c r="J3">
-        <v>1869.135230750665</v>
+        <v>1989.513541434898</v>
       </c>
       <c r="K3">
-        <v>302.5512273060679</v>
+        <v>295.4835004523378</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1480.600000695483</v>
+        <v>-1397.431474317868</v>
       </c>
       <c r="J4">
-        <v>1986.331136721999</v>
+        <v>1871.222800700801</v>
       </c>
       <c r="K4">
-        <v>577.7356326340647</v>
+        <v>615.305150126735</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1413.838599568901</v>
+        <v>-1456.297996064143</v>
       </c>
       <c r="J5">
-        <v>1939.331006270963</v>
+        <v>1905.547271039632</v>
       </c>
       <c r="K5">
-        <v>897.6754083618373</v>
+        <v>839.6214315208144</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1376.075111690432</v>
+        <v>-1427.469711315799</v>
       </c>
       <c r="J6">
-        <v>1732.826541226289</v>
+        <v>1763.391049448144</v>
       </c>
       <c r="K6">
-        <v>1097.019187258871</v>
+        <v>1165.118984019249</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1376.298790756407</v>
+        <v>-1401.409080602667</v>
       </c>
       <c r="J7">
-        <v>1843.64001612076</v>
+        <v>1812.161910331816</v>
       </c>
       <c r="K7">
-        <v>1313.762199130355</v>
+        <v>1313.870960323693</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1313.424757708066</v>
+        <v>-1347.674432235557</v>
       </c>
       <c r="J8">
-        <v>1693.918296906117</v>
+        <v>1653.345698130393</v>
       </c>
       <c r="K8">
-        <v>1573.812376746142</v>
+        <v>1632.758043402172</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.26347543420557</v>
+        <v>-96.36874575632226</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1247.611116211807</v>
+        <v>-1224.736801990378</v>
       </c>
       <c r="J9">
-        <v>1619.304555410457</v>
+        <v>1674.953179708273</v>
       </c>
       <c r="K9">
-        <v>1828.891865155839</v>
+        <v>1842.408513168978</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.178344091602</v>
+        <v>207.9788436340889</v>
       </c>
       <c r="G10">
-        <v>-87.52799700121463</v>
+        <v>-82.88291104428077</v>
       </c>
       <c r="H10">
-        <v>896.5019460979333</v>
+        <v>888.7888075088713</v>
       </c>
       <c r="I10">
-        <v>-1241.852982888716</v>
+        <v>-1231.920431431192</v>
       </c>
       <c r="J10">
-        <v>1626.783539652454</v>
+        <v>1653.867764765606</v>
       </c>
       <c r="K10">
-        <v>2096.90387906749</v>
+        <v>2051.155213249361</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>166.1658557795328</v>
+        <v>163.0693508709122</v>
       </c>
       <c r="G11">
-        <v>-65.39972139436949</v>
+        <v>-70.1779040035521</v>
       </c>
       <c r="H11">
-        <v>1103.330621451935</v>
+        <v>1072.056776141359</v>
       </c>
       <c r="I11">
-        <v>-1247.457877820815</v>
+        <v>-1190.962076211349</v>
       </c>
       <c r="J11">
-        <v>1590.618164744455</v>
+        <v>1526.324613703418</v>
       </c>
       <c r="K11">
-        <v>2162.718861260318</v>
+        <v>2267.146573336021</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>143.9155408149993</v>
+        <v>145.2646966522333</v>
       </c>
       <c r="G12">
-        <v>-52.21885771072307</v>
+        <v>-50.42747730662897</v>
       </c>
       <c r="H12">
-        <v>1143.92878339284</v>
+        <v>1234.681841105859</v>
       </c>
       <c r="I12">
-        <v>-1136.064703854836</v>
+        <v>-1123.829203540171</v>
       </c>
       <c r="J12">
-        <v>1509.042402392286</v>
+        <v>1510.889721047765</v>
       </c>
       <c r="K12">
-        <v>2441.379132719007</v>
+        <v>2410.323069452522</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>127.4099081015636</v>
+        <v>126.8521881875204</v>
       </c>
       <c r="G13">
-        <v>-32.74642789261079</v>
+        <v>-32.68048150464339</v>
       </c>
       <c r="H13">
-        <v>1202.082679784995</v>
+        <v>1216.533452627666</v>
       </c>
       <c r="I13">
-        <v>-1087.313850360485</v>
+        <v>-1115.674275093482</v>
       </c>
       <c r="J13">
-        <v>1422.207777556956</v>
+        <v>1521.808073588825</v>
       </c>
       <c r="K13">
-        <v>2406.855851626195</v>
+        <v>2492.948466147989</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>105.1052293513329</v>
+        <v>113.4749494711313</v>
       </c>
       <c r="G14">
-        <v>-16.62106456553521</v>
+        <v>-17.88474167809553</v>
       </c>
       <c r="H14">
-        <v>1379.618546475199</v>
+        <v>1390.492318396253</v>
       </c>
       <c r="I14">
-        <v>-1075.512800580929</v>
+        <v>-1124.605137825491</v>
       </c>
       <c r="J14">
-        <v>1365.966421667921</v>
+        <v>1472.223783638829</v>
       </c>
       <c r="K14">
-        <v>2763.280988905711</v>
+        <v>2705.589602764707</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>103.1752054689538</v>
+        <v>100.3289801996873</v>
       </c>
       <c r="G15">
-        <v>-0.9102837869637692</v>
+        <v>-0.9485044046958836</v>
       </c>
       <c r="H15">
-        <v>1349.775142664865</v>
+        <v>1348.134007530256</v>
       </c>
       <c r="I15">
-        <v>-1085.151321890084</v>
+        <v>-1095.228411572188</v>
       </c>
       <c r="J15">
-        <v>1418.994157890761</v>
+        <v>1411.664370414244</v>
       </c>
       <c r="K15">
-        <v>2743.649970686417</v>
+        <v>2688.285447324388</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>89.0573437897031</v>
+        <v>94.24069936546165</v>
       </c>
       <c r="G16">
-        <v>15.30551034153248</v>
+        <v>14.92999247038633</v>
       </c>
       <c r="H16">
-        <v>1494.072289410804</v>
+        <v>1397.990798942591</v>
       </c>
       <c r="I16">
-        <v>-1026.054660080005</v>
+        <v>-1045.274238158515</v>
       </c>
       <c r="J16">
-        <v>1317.292911235513</v>
+        <v>1333.425841390529</v>
       </c>
       <c r="K16">
-        <v>2808.100373939013</v>
+        <v>2794.641651529957</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.73061721376281</v>
+        <v>89.32085782930909</v>
       </c>
       <c r="G17">
-        <v>31.69315717238615</v>
+        <v>31.08281776561804</v>
       </c>
       <c r="H17">
-        <v>1501.680672974108</v>
+        <v>1519.279772902637</v>
       </c>
       <c r="I17">
-        <v>-943.3402756035241</v>
+        <v>-977.1702941992295</v>
       </c>
       <c r="J17">
-        <v>1325.252320155523</v>
+        <v>1307.26456872509</v>
       </c>
       <c r="K17">
-        <v>2867.391522374353</v>
+        <v>3109.201566104737</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.24486759916276</v>
+        <v>85.36671962758884</v>
       </c>
       <c r="G18">
-        <v>46.87263234021856</v>
+        <v>48.60157860857202</v>
       </c>
       <c r="H18">
-        <v>1514.418391028174</v>
+        <v>1573.882728060529</v>
       </c>
       <c r="I18">
-        <v>-931.3726144443602</v>
+        <v>-953.6068509649546</v>
       </c>
       <c r="J18">
-        <v>1180.29066389486</v>
+        <v>1240.785806314467</v>
       </c>
       <c r="K18">
-        <v>3153.249188705365</v>
+        <v>2985.909322902114</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.33603170506117</v>
+        <v>76.40481671488337</v>
       </c>
       <c r="G19">
-        <v>63.25821527891048</v>
+        <v>68.00321674671299</v>
       </c>
       <c r="H19">
-        <v>1471.669174630496</v>
+        <v>1562.617740429504</v>
       </c>
       <c r="I19">
-        <v>-842.630294207216</v>
+        <v>-865.5737498176475</v>
       </c>
       <c r="J19">
-        <v>1156.884113781205</v>
+        <v>1145.411915648524</v>
       </c>
       <c r="K19">
-        <v>3068.127646692521</v>
+        <v>3025.743821851314</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>75.70954550488331</v>
+        <v>73.00057091548894</v>
       </c>
       <c r="G20">
-        <v>80.69252971519474</v>
+        <v>84.95270221694203</v>
       </c>
       <c r="H20">
-        <v>1589.288565764376</v>
+        <v>1512.505511801876</v>
       </c>
       <c r="I20">
-        <v>-813.7365970682522</v>
+        <v>-872.6061684834248</v>
       </c>
       <c r="J20">
-        <v>1138.465119117438</v>
+        <v>1147.366518465215</v>
       </c>
       <c r="K20">
-        <v>3101.802874815368</v>
+        <v>3239.185324138963</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>72.55957413173529</v>
+        <v>73.8158693612223</v>
       </c>
       <c r="G21">
-        <v>99.49188411304573</v>
+        <v>95.49327331426163</v>
       </c>
       <c r="H21">
-        <v>1638.229952985543</v>
+        <v>1600.732869060497</v>
       </c>
       <c r="I21">
-        <v>-802.437526978053</v>
+        <v>-816.964754984826</v>
       </c>
       <c r="J21">
-        <v>1023.09248303704</v>
+        <v>1098.927676816289</v>
       </c>
       <c r="K21">
-        <v>3237.369100562875</v>
+        <v>3280.473980789828</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>69.75759582937971</v>
+        <v>66.31104398291509</v>
       </c>
       <c r="G22">
-        <v>112.746390061008</v>
+        <v>113.3131633734397</v>
       </c>
       <c r="H22">
-        <v>1672.61607544453</v>
+        <v>1554.078506279685</v>
       </c>
       <c r="I22">
-        <v>-710.0914918041622</v>
+        <v>-768.5934277981122</v>
       </c>
       <c r="J22">
-        <v>997.0378922980035</v>
+        <v>995.2571565859224</v>
       </c>
       <c r="K22">
-        <v>3255.351543817101</v>
+        <v>3273.654125517122</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>67.29064616523668</v>
+        <v>63.8000749260159</v>
       </c>
       <c r="G23">
-        <v>132.1550626977225</v>
+        <v>133.4048891103157</v>
       </c>
       <c r="H23">
-        <v>1596.558156790889</v>
+        <v>1599.087022564977</v>
       </c>
       <c r="I23">
-        <v>-711.6755344532929</v>
+        <v>-674.8501162656856</v>
       </c>
       <c r="J23">
-        <v>1015.203122199979</v>
+        <v>992.5030281374392</v>
       </c>
       <c r="K23">
-        <v>3108.538274923939</v>
+        <v>3175.224635020771</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.91817702353359</v>
+        <v>63.79874100852204</v>
       </c>
       <c r="G24">
-        <v>142.6697248340093</v>
+        <v>143.3579459991683</v>
       </c>
       <c r="H24">
-        <v>1679.615406927319</v>
+        <v>1599.037398487324</v>
       </c>
       <c r="I24">
-        <v>-677.6363764950202</v>
+        <v>-627.9593906294953</v>
       </c>
       <c r="J24">
-        <v>900.5408598082319</v>
+        <v>932.9264914237251</v>
       </c>
       <c r="K24">
-        <v>3264.435723876994</v>
+        <v>3243.570216626229</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>64.31940891427779</v>
+        <v>60.81125981469205</v>
       </c>
       <c r="G25">
-        <v>167.8914716538979</v>
+        <v>164.1352740241317</v>
       </c>
       <c r="H25">
-        <v>1645.117626458726</v>
+        <v>1755.801095335647</v>
       </c>
       <c r="I25">
-        <v>-584.6023313691678</v>
+        <v>-598.9446723856856</v>
       </c>
       <c r="J25">
-        <v>858.8234890134737</v>
+        <v>906.7491178209533</v>
       </c>
       <c r="K25">
-        <v>3151.821163616885</v>
+        <v>3237.114869859675</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>60.03307902982007</v>
+        <v>61.36167170081566</v>
       </c>
       <c r="G26">
-        <v>173.3512168300415</v>
+        <v>180.1038581768024</v>
       </c>
       <c r="H26">
-        <v>1624.169906438043</v>
+        <v>1704.516169231355</v>
       </c>
       <c r="I26">
-        <v>-554.8001029632219</v>
+        <v>-524.5907786523419</v>
       </c>
       <c r="J26">
-        <v>792.8445142122241</v>
+        <v>820.7677423617314</v>
       </c>
       <c r="K26">
-        <v>3154.449280456199</v>
+        <v>2995.973060604478</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>56.75090594591666</v>
+        <v>59.58462378365653</v>
       </c>
       <c r="G27">
-        <v>204.5713797204206</v>
+        <v>193.1119958183044</v>
       </c>
       <c r="H27">
-        <v>1712.108603513202</v>
+        <v>1667.057074882663</v>
       </c>
       <c r="I27">
-        <v>-510.0697973838091</v>
+        <v>-517.6849667534908</v>
       </c>
       <c r="J27">
-        <v>799.7183542199682</v>
+        <v>789.3743538899455</v>
       </c>
       <c r="K27">
-        <v>2923.63436534506</v>
+        <v>2990.44712994731</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>59.13138022754665</v>
+        <v>55.89349228583932</v>
       </c>
       <c r="G28">
-        <v>205.5026570321996</v>
+        <v>204.9711749939458</v>
       </c>
       <c r="H28">
-        <v>1641.352611636596</v>
+        <v>1643.363986507607</v>
       </c>
       <c r="I28">
-        <v>-438.6021487940313</v>
+        <v>-442.6025891406356</v>
       </c>
       <c r="J28">
-        <v>719.4780073562961</v>
+        <v>721.8954102469768</v>
       </c>
       <c r="K28">
-        <v>2994.849853064919</v>
+        <v>2842.907777791233</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>56.50937907254028</v>
+        <v>55.09918002546036</v>
       </c>
       <c r="G29">
-        <v>218.8940423334291</v>
+        <v>235.7384792323924</v>
       </c>
       <c r="H29">
-        <v>1769.07847372305</v>
+        <v>1677.403354954641</v>
       </c>
       <c r="I29">
-        <v>-392.4371466365941</v>
+        <v>-375.7577977086831</v>
       </c>
       <c r="J29">
-        <v>720.060586855</v>
+        <v>683.8803141804577</v>
       </c>
       <c r="K29">
-        <v>2763.504965042656</v>
+        <v>3022.028077070984</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>51.66419461261491</v>
+        <v>53.45442345051705</v>
       </c>
       <c r="G30">
-        <v>246.926996661892</v>
+        <v>254.819366791703</v>
       </c>
       <c r="H30">
-        <v>1758.860625384551</v>
+        <v>1705.265698847028</v>
       </c>
       <c r="I30">
-        <v>-319.2403138978467</v>
+        <v>-325.3414324176065</v>
       </c>
       <c r="J30">
-        <v>636.5390121772645</v>
+        <v>612.0940364993332</v>
       </c>
       <c r="K30">
-        <v>2731.916614518183</v>
+        <v>2783.532696451231</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>52.32778025637595</v>
+        <v>50.21378816168767</v>
       </c>
       <c r="G31">
-        <v>253.4849599818187</v>
+        <v>250.5810420624271</v>
       </c>
       <c r="H31">
-        <v>1690.361951986816</v>
+        <v>1778.050427855845</v>
       </c>
       <c r="I31">
-        <v>-270.6240822978861</v>
+        <v>-275.4939987655027</v>
       </c>
       <c r="J31">
-        <v>581.7520299495749</v>
+        <v>563.888105746355</v>
       </c>
       <c r="K31">
-        <v>2694.164597910552</v>
+        <v>2629.058397898664</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>53.41867100987929</v>
+        <v>53.78840624528387</v>
       </c>
       <c r="G32">
-        <v>269.0907104842712</v>
+        <v>293.4467990847191</v>
       </c>
       <c r="H32">
-        <v>1810.968179825395</v>
+        <v>1725.983381492462</v>
       </c>
       <c r="I32">
-        <v>-210.7989200666837</v>
+        <v>-212.227561748782</v>
       </c>
       <c r="J32">
-        <v>566.3170994987743</v>
+        <v>528.7242580991036</v>
       </c>
       <c r="K32">
-        <v>2592.205792869609</v>
+        <v>2486.938008778897</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>51.60757879401488</v>
+        <v>48.75679073187696</v>
       </c>
       <c r="G33">
-        <v>305.7328910101093</v>
+        <v>300.8713929703183</v>
       </c>
       <c r="H33">
-        <v>1722.299752736149</v>
+        <v>1772.537975090391</v>
       </c>
       <c r="I33">
-        <v>-153.4008829895097</v>
+        <v>-147.8538641918371</v>
       </c>
       <c r="J33">
-        <v>500.5331587749942</v>
+        <v>468.6909636687853</v>
       </c>
       <c r="K33">
-        <v>2337.664998015141</v>
+        <v>2289.630396964263</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>47.06552564019539</v>
+        <v>47.78688330796938</v>
       </c>
       <c r="G34">
-        <v>303.0053335582302</v>
+        <v>314.7736957697571</v>
       </c>
       <c r="H34">
-        <v>1833.960213276213</v>
+        <v>1860.345386129708</v>
       </c>
       <c r="I34">
-        <v>-80.71023369643338</v>
+        <v>-85.4472644632755</v>
       </c>
       <c r="J34">
-        <v>459.422638179751</v>
+        <v>422.7368345410472</v>
       </c>
       <c r="K34">
-        <v>2264.81453119506</v>
+        <v>2239.682283226673</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.84286217865443</v>
+        <v>48.96949851070296</v>
       </c>
       <c r="G35">
-        <v>328.084056939482</v>
+        <v>340.3632710051562</v>
       </c>
       <c r="H35">
-        <v>1869.411578148756</v>
+        <v>1816.438928548345</v>
       </c>
       <c r="I35">
-        <v>-18.88594358583982</v>
+        <v>-17.85719748893133</v>
       </c>
       <c r="J35">
-        <v>385.7067675505718</v>
+        <v>387.2492907622372</v>
       </c>
       <c r="K35">
-        <v>2027.43017469146</v>
+        <v>2035.073849125752</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.06315920662725</v>
+        <v>48.91457041585095</v>
       </c>
       <c r="G36">
-        <v>334.6820977726193</v>
+        <v>347.2279780132603</v>
       </c>
       <c r="H36">
-        <v>1806.086790830139</v>
+        <v>1873.209814671781</v>
       </c>
       <c r="I36">
-        <v>46.41060691911186</v>
+        <v>48.21459676152581</v>
       </c>
       <c r="J36">
-        <v>357.5709170200596</v>
+        <v>335.60039018186</v>
       </c>
       <c r="K36">
-        <v>1794.652069256058</v>
+        <v>1889.139102592547</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>46.22696610473711</v>
+        <v>46.83158303112852</v>
       </c>
       <c r="G37">
-        <v>360.2112262119859</v>
+        <v>378.0992985841272</v>
       </c>
       <c r="H37">
-        <v>1873.244067553657</v>
+        <v>1785.164996084059</v>
       </c>
       <c r="I37">
-        <v>109.3698003387195</v>
+        <v>110.3735918869282</v>
       </c>
       <c r="J37">
-        <v>296.7241659978337</v>
+        <v>309.8571283337619</v>
       </c>
       <c r="K37">
-        <v>1639.036538926709</v>
+        <v>1646.303048033296</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>44.21371644054215</v>
+        <v>46.60269329489156</v>
       </c>
       <c r="G38">
-        <v>389.5272915439366</v>
+        <v>370.8870764755885</v>
       </c>
       <c r="H38">
-        <v>1895.486897680488</v>
+        <v>1834.026818296008</v>
       </c>
       <c r="I38">
-        <v>179.6609739295798</v>
+        <v>180.42632104631</v>
       </c>
       <c r="J38">
-        <v>259.5396935589969</v>
+        <v>249.20090556675</v>
       </c>
       <c r="K38">
-        <v>1451.450292795701</v>
+        <v>1387.375501402356</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.23811142882212</v>
+        <v>45.29189398942948</v>
       </c>
       <c r="G39">
-        <v>379.3870726838994</v>
+        <v>389.8227293330623</v>
       </c>
       <c r="H39">
-        <v>1946.307953607634</v>
+        <v>1949.394521678963</v>
       </c>
       <c r="I39">
-        <v>248.770168762836</v>
+        <v>252.9029656421956</v>
       </c>
       <c r="J39">
-        <v>198.0505327162496</v>
+        <v>207.05175757347</v>
       </c>
       <c r="K39">
-        <v>1193.289080795162</v>
+        <v>1189.856751358032</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.01040549974672</v>
+        <v>44.17892509201994</v>
       </c>
       <c r="G40">
-        <v>391.6250709618084</v>
+        <v>410.2386798844908</v>
       </c>
       <c r="H40">
-        <v>1917.325143570178</v>
+        <v>1918.753653822029</v>
       </c>
       <c r="I40">
-        <v>319.6815372384492</v>
+        <v>344.4985721376408</v>
       </c>
       <c r="J40">
-        <v>144.2357102357279</v>
+        <v>147.5100283210636</v>
       </c>
       <c r="K40">
-        <v>921.7520195594117</v>
+        <v>907.8531822083361</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>43.18559062251859</v>
+        <v>44.29477568598899</v>
       </c>
       <c r="G41">
-        <v>448.1416526544907</v>
+        <v>410.4143355781884</v>
       </c>
       <c r="H41">
-        <v>1949.20236233253</v>
+        <v>1858.632988420179</v>
       </c>
       <c r="I41">
-        <v>421.2489137448548</v>
+        <v>385.3366147224228</v>
       </c>
       <c r="J41">
-        <v>101.3586911218896</v>
+        <v>105.4642949822823</v>
       </c>
       <c r="K41">
-        <v>601.9414195809942</v>
+        <v>615.2137075196323</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.75897412063483</v>
+        <v>42.51071747515343</v>
       </c>
       <c r="G42">
-        <v>430.2832795485783</v>
+        <v>450.007842213982</v>
       </c>
       <c r="H42">
-        <v>1883.982835518432</v>
+        <v>1972.27442147697</v>
       </c>
       <c r="I42">
-        <v>456.4702991527961</v>
+        <v>456.2973033052185</v>
       </c>
       <c r="J42">
-        <v>53.89966386095544</v>
+        <v>53.83410142239261</v>
       </c>
       <c r="K42">
-        <v>329.0009878146469</v>
+        <v>330.2667840026599</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>40.64817987085981</v>
+        <v>43.24969869725268</v>
       </c>
       <c r="G43">
-        <v>451.2054596715238</v>
+        <v>447.8803117179671</v>
       </c>
       <c r="H43">
-        <v>1882.105372045951</v>
+        <v>1939.019227448627</v>
       </c>
       <c r="I43">
-        <v>564.7893698715504</v>
+        <v>578.9739587157223</v>
       </c>
       <c r="J43">
-        <v>5.208000531104584</v>
+        <v>5.370759073104621</v>
       </c>
       <c r="K43">
-        <v>34.7897857945193</v>
+        <v>33.21847637632786</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.73116525284119</v>
+        <v>40.50945745124312</v>
       </c>
       <c r="G44">
-        <v>497.6004240761116</v>
+        <v>483.4032253202683</v>
       </c>
       <c r="H44">
-        <v>1942.846639296232</v>
+        <v>1950.558215682592</v>
       </c>
       <c r="I44">
-        <v>643.1233286060091</v>
+        <v>606.7465747483433</v>
       </c>
       <c r="J44">
-        <v>-43.47442825742941</v>
+        <v>-43.06853348766094</v>
       </c>
       <c r="K44">
-        <v>-281.5787550503526</v>
+        <v>-289.648831441661</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>41.63167517017801</v>
+        <v>39.55760772843629</v>
       </c>
       <c r="G45">
-        <v>487.4890466691615</v>
+        <v>486.8874480022194</v>
       </c>
       <c r="H45">
-        <v>2009.342069932585</v>
+        <v>1852.864520768828</v>
       </c>
       <c r="I45">
-        <v>750.3729571195851</v>
+        <v>698.7943984094079</v>
       </c>
       <c r="J45">
-        <v>-96.51725936156495</v>
+        <v>-91.39295529637904</v>
       </c>
       <c r="K45">
-        <v>-615.1356870339882</v>
+        <v>-607.6325334458912</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.77977225451127</v>
+        <v>42.18966953098723</v>
       </c>
       <c r="G46">
-        <v>510.2586316005537</v>
+        <v>508.8841632231323</v>
       </c>
       <c r="H46">
-        <v>1881.006347756318</v>
+        <v>1999.564772722743</v>
       </c>
       <c r="I46">
-        <v>811.3418966180603</v>
+        <v>782.3663769321687</v>
       </c>
       <c r="J46">
-        <v>-146.7461357179757</v>
+        <v>-142.3276751105059</v>
       </c>
       <c r="K46">
-        <v>-992.6545630360743</v>
+        <v>-941.308429855901</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>41.56189082020119</v>
+        <v>41.03094648208305</v>
       </c>
       <c r="G47">
-        <v>528.6737525381413</v>
+        <v>531.5153743054625</v>
       </c>
       <c r="H47">
-        <v>1961.473905903647</v>
+        <v>2001.11062578669</v>
       </c>
       <c r="I47">
-        <v>910.0398709457313</v>
+        <v>913.4384795093723</v>
       </c>
       <c r="J47">
-        <v>-194.15888202482</v>
+        <v>-190.370873986837</v>
       </c>
       <c r="K47">
-        <v>-1350.451622392976</v>
+        <v>-1342.101901143188</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.89127870469405</v>
+        <v>38.31484340227115</v>
       </c>
       <c r="G48">
-        <v>529.6394287958848</v>
+        <v>555.2593811501841</v>
       </c>
       <c r="H48">
-        <v>1940.141706185067</v>
+        <v>1844.352176336315</v>
       </c>
       <c r="I48">
-        <v>979.1370679974042</v>
+        <v>939.4405871253688</v>
       </c>
       <c r="J48">
-        <v>-238.5218290163938</v>
+        <v>-228.7032293344457</v>
       </c>
       <c r="K48">
-        <v>-1679.874366638581</v>
+        <v>-1700.705102068994</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>38.31932456580278</v>
+        <v>40.61559001182583</v>
       </c>
       <c r="G49">
-        <v>573.847033387815</v>
+        <v>551.5864324265272</v>
       </c>
       <c r="H49">
-        <v>1918.278516663132</v>
+        <v>1917.898989878744</v>
       </c>
       <c r="I49">
-        <v>1101.539376220835</v>
+        <v>1070.113128363597</v>
       </c>
       <c r="J49">
-        <v>-283.0892134124987</v>
+        <v>-287.8512815008554</v>
       </c>
       <c r="K49">
-        <v>-2182.970261556337</v>
+        <v>-2196.894858868408</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.3426261758993</v>
+        <v>38.79752746652694</v>
       </c>
       <c r="G50">
-        <v>556.7160325813965</v>
+        <v>604.5043204824863</v>
       </c>
       <c r="H50">
-        <v>1993.181126673099</v>
+        <v>1933.804244374893</v>
       </c>
       <c r="I50">
-        <v>1206.792459079163</v>
+        <v>1152.796194351046</v>
       </c>
       <c r="J50">
-        <v>-326.1695669568619</v>
+        <v>-329.1198036493904</v>
       </c>
       <c r="K50">
-        <v>-2559.673790797222</v>
+        <v>-2585.757169316426</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.23466678583674</v>
+        <v>39.46536690769999</v>
       </c>
       <c r="G51">
-        <v>568.129749510477</v>
+        <v>608.2137142515178</v>
       </c>
       <c r="H51">
-        <v>1962.90176777305</v>
+        <v>1917.687295221901</v>
       </c>
       <c r="I51">
-        <v>1213.66163133952</v>
+        <v>1234.506021525634</v>
       </c>
       <c r="J51">
-        <v>-398.7921190048348</v>
+        <v>-378.424601449154</v>
       </c>
       <c r="K51">
-        <v>-2782.570562059419</v>
+        <v>-2839.329680106448</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>37.15049576709607</v>
+        <v>37.67629310911674</v>
       </c>
       <c r="G52">
-        <v>619.2703391468172</v>
+        <v>579.7208588366582</v>
       </c>
       <c r="H52">
-        <v>1943.507704553567</v>
+        <v>2068.4643548575</v>
       </c>
       <c r="I52">
-        <v>1308.542189252635</v>
+        <v>1380.188415699243</v>
       </c>
       <c r="J52">
-        <v>-411.2136076721504</v>
+        <v>-447.0011676152074</v>
       </c>
       <c r="K52">
-        <v>-3382.320275227087</v>
+        <v>-3495.874490890593</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>36.2676562362825</v>
+        <v>38.8059283779133</v>
       </c>
       <c r="G53">
-        <v>607.0200468087019</v>
+        <v>650.1710667086671</v>
       </c>
       <c r="H53">
-        <v>2072.40510617919</v>
+        <v>2033.307593255595</v>
       </c>
       <c r="I53">
-        <v>1494.376124232057</v>
+        <v>1420.695775591136</v>
       </c>
       <c r="J53">
-        <v>-500.1595720625672</v>
+        <v>-457.9463944387136</v>
       </c>
       <c r="K53">
-        <v>-4003.674807670412</v>
+        <v>-3789.809518766734</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>37.94761009024087</v>
+        <v>35.4455982238135</v>
       </c>
       <c r="G54">
-        <v>666.2472173783592</v>
+        <v>622.3978304849899</v>
       </c>
       <c r="H54">
-        <v>2005.834924814248</v>
+        <v>1972.071033334199</v>
       </c>
       <c r="I54">
-        <v>1600.137430626322</v>
+        <v>1577.555101248368</v>
       </c>
       <c r="J54">
-        <v>-547.1318153126597</v>
+        <v>-553.2104501697067</v>
       </c>
       <c r="K54">
-        <v>-4293.29726669012</v>
+        <v>-4105.253491333107</v>
       </c>
     </row>
   </sheetData>
